--- a/Example data file for STREAMLIT APP.xlsx
+++ b/Example data file for STREAMLIT APP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinaya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qingx\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D4F4953-34D7-400D-AC00-ED7C72867FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE25EED5-155E-474B-9DBA-4127EFE40C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A83A28C7-9CA8-4088-ADBE-71E3DFDF0D3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{A83A28C7-9CA8-4088-ADBE-71E3DFDF0D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>ID000</t>
   </si>
@@ -417,13 +417,28 @@
   </si>
   <si>
     <t>Q3TDX7;Q61508</t>
+  </si>
+  <si>
+    <t>-Log T-test p-value KO2</t>
+  </si>
+  <si>
+    <t>Log2 Fold-change (Smim12 KO2/Control)</t>
+  </si>
+  <si>
+    <t>ID031</t>
+  </si>
+  <si>
+    <t>Q91VW3;I7HPY0</t>
+  </si>
+  <si>
+    <t>E3 Ligase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +451,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,8 +479,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,467 +803,911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A0D2DF-FCFD-4085-983C-365A2548ED65}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="108.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4">
+        <v>3.4801376536009401</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.2343050638834603</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.2343050638834603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4">
+        <v>3.34041528018806</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.5480982462565098</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.5480982462565098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4">
+        <v>4.1358030968814896</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.9408734639485701</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.9408734639485701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4">
+        <v>1.8457499926593499</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.90464115142822</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.90464115142822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>3.1271329327595301</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.69878578186035</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.69878578186035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>3.06973490755392</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.56340726216634</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.56340726216634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <v>2.6623808127717301</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.4968878428141299</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.4968878428141299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <v>6.1126543006519896</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.4878094991048201</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4878094991048201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="4">
+        <v>3.42983525243966</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.4260718027750701</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.4260718027750701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="4">
+        <v>1.00279669998142</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.41260019938151</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.41260019938151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <v>2.1169573362134901</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.38303025563558</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.38303025563558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="4">
+        <v>4.6630865610586296</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.34397443135579</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.34397443135579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="4">
+        <v>3.8527382440597799</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.3131529490153</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.3131529490153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="4">
+        <v>4.8090727047570496</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.3038336435953799</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.3038336435953799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4">
+        <v>1.96351592354104</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.27821667989095</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.27821667989095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
+        <v>4.4009718352899201</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.25170771280924</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.25170771280924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="4">
+        <v>4.4464218695613598</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.24642181396484</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.24642181396484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="4">
+        <v>3.5884807093653901</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.1885706583658899</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.1885706583658899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="4">
+        <v>3.26367219681973</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.18673769632975</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.18673769632975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="4">
+        <v>0.79857045464884302</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.0976530710856101</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.0976530710856101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="4">
+        <v>5.99108198969029</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.0886732737223299</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.0886732737223299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="4">
+        <v>4.8074429807027999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.0870793660481799</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.0870793660481799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="4">
+        <v>5.3853827757413502</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.07657814025879</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.07657814025879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>109</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="4">
+        <v>6.4575993069496196</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.07038752237956</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.07038752237956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="4">
+        <v>4.5664858760743403</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.0656236012776701</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.0656236012776701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="4">
+        <v>2.2092505298680898</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.0600694020589201</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.0600694020589201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="4">
+        <v>3.0589817484671902</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.0516192118326799</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.0516192118326799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="4">
+        <v>2.7860503208041298</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.0360501607259101</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.0360501607259101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="4">
+        <v>4.52260844665419</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1.0094623565673799</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.0094623565673799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="4">
+        <v>1.17432724114904</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1.0071983337402299</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.0071983337402299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.8089022120126899</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.00378163655599</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1.00378163655599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="5">
+        <v>36951</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.1370405354822899</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.99743175506591797</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.99743175506591797</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:G33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>